--- a/-114/T1B/T1B.xlsx
+++ b/-114/T1B/T1B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\-114\T1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347151AE-132E-413E-A010-28DFCD592020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801E212-5CAE-48D4-B9BF-168A9DFA7AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BBBEBA2-0569-494E-BBE3-128569D26559}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BBBEBA2-0569-494E-BBE3-128569D26559}"/>
   </bookViews>
   <sheets>
     <sheet name="Thévenin Norton" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <r>
       <t>V</t>
@@ -70,32 +70,6 @@
         <family val="2"/>
       </rPr>
       <t>± 1 mV</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">L </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/mA ± 0.01 mA </t>
     </r>
   </si>
   <si>
@@ -354,12 +328,6 @@
   </si>
   <si>
     <t>Tolerância</t>
-  </si>
-  <si>
-    <t>Ajuste linear 1</t>
-  </si>
-  <si>
-    <t>Ajuste linear 2</t>
   </si>
   <si>
     <r>
@@ -695,32 +663,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Resíduos de I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /μA</t>
-    </r>
-  </si>
-  <si>
     <t>Valor verificado</t>
   </si>
   <si>
@@ -757,32 +699,6 @@
   </si>
   <si>
     <r>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">L ajuste </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/mA</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>(I</t>
     </r>
     <r>
@@ -807,18 +723,64 @@
       <t xml:space="preserve"> ± u(IL) ) mA</t>
     </r>
   </si>
+  <si>
+    <t>Aj.Lin Original (1)</t>
+  </si>
+  <si>
+    <t>Aj.Lin Original (2)</t>
+  </si>
+  <si>
+    <t>Aj.Lin Equivalente (1)</t>
+  </si>
+  <si>
+    <t>Aj.Lin Equivalente (2)</t>
+  </si>
+  <si>
+    <t>Resíduos Aj2 IL /mA</t>
+  </si>
+  <si>
+    <t>Resíduos Aj1 IL /mA</t>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/mA </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0E+00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -898,7 +860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -958,11 +920,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,6 +1060,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,16 +1084,34 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,79 +1300,45 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.268176637754777E-2"/>
-                  <c:y val="-0.34470681225847744"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$D$13:$D$21</c:f>
+              <c:f>'Thévenin Norton'!$D$11:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.3069999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2.1549999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1.8959999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1.7230000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1.1279999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.60399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.45100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.32100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.17199999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1308,35 +1346,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$E$13:$E$21</c:f>
+              <c:f>'Thévenin Norton'!$E$11:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.22900000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.45400000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.83799999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1.0960000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1.9750000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1571,7 +1615,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1630,10 +1674,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73631504922644164"/>
-          <c:y val="0.16201227166680315"/>
-          <c:w val="0.22172667604313173"/>
-          <c:h val="0.18698169932002984"/>
+          <c:x val="0.65295827473042667"/>
+          <c:y val="0.16201241508393885"/>
+          <c:w val="0.30806047819971871"/>
+          <c:h val="0.10731445495131159"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1801,6 +1845,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Circuito Original</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1821,37 +1868,166 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$11:$F$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$11:$F$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$D$13:$D$21</c:f>
+              <c:f>'Thévenin Norton'!$D$11:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.3069999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2.1549999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1.8959999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1.7230000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1.1279999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.60399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.45100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.32100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.17199999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1859,36 +2035,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$H$13:$H$21</c:f>
+              <c:f>'Thévenin Norton'!$G$11:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0E+00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.1979371735032791E-3</c:v>
+                  <c:v>2.6206890367676261E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4561076401361577E-4</c:v>
+                  <c:v>2.6206890367676261E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.2803927889981646E-3</c:v>
+                  <c:v>1.3091592590041279E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.9294221892719463E-3</c:v>
+                  <c:v>-7.6455844372408377E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.3502673594839809E-2</c:v>
+                  <c:v>-3.6862221608721102E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8074832730340837E-2</c:v>
+                  <c:v>-4.1319666514763043E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.7257477394733201E-4</c:v>
+                  <c:v>-1.4006058974654678E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.966882902146974E-3</c:v>
+                  <c:v>2.8187177365941452E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7800200222945151E-2</c:v>
+                  <c:v>-3.8044637430445505E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4117687483627996E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7180230841811195E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,12 +2272,12 @@
                   <a:t> /</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR">
+                  <a:rPr lang="pt-PT">
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>μ</a:t>
+                  <a:t>m</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
@@ -2133,7 +2315,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2188,9 +2370,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73519456165025776"/>
-          <c:y val="0.18146511636236434"/>
-          <c:w val="0.22635443037974684"/>
+          <c:x val="0.64588373183309888"/>
+          <c:y val="0.17169646160579607"/>
+          <c:w val="0.31566526019690572"/>
           <c:h val="0.10214822042002318"/>
         </c:manualLayout>
       </c:layout>
@@ -2359,6 +2541,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Circuito Equivalente</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2397,38 +2582,44 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$D$42:$D$51</c:f>
+              <c:f>'Thévenin Norton'!$D$40:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.464</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.3109999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2.1589999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1.901</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1.7250000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.000">
+                <c:pt idx="6" formatCode="0.000">
                   <c:v>1.522</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1.1259999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.60499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.45200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.33200000000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.17199999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2436,38 +2627,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$E$42:$E$51</c:f>
+              <c:f>'Thévenin Norton'!$E$40:$E$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.47E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="General">
                   <c:v>0.45500000000000002</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4" formatCode="General">
                   <c:v>0.83599999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5" formatCode="General">
                   <c:v>1.097</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6" formatCode="General">
                   <c:v>1.397</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7" formatCode="General">
                   <c:v>1.984</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8" formatCode="General">
                   <c:v>2.8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9" formatCode="General">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10" formatCode="General">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11" formatCode="General">
                   <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2702,7 +2899,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2753,14 +2950,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.70456878976601611"/>
-          <c:y val="0.16586884664612006"/>
-          <c:w val="0.25735909649780953"/>
-          <c:h val="0.17441460370508724"/>
+          <c:x val="0.60615810388239932"/>
+          <c:y val="0.15588995393138974"/>
+          <c:w val="0.35278763542045061"/>
+          <c:h val="0.11952969629918903"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2928,6 +3129,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Circuito Equivalente</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2948,40 +3152,175 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$40:$F$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$40:$F$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000001E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$D$42:$D$51</c:f>
+              <c:f>'Thévenin Norton'!$D$40:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.464</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.3109999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>2.1589999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1.901</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1.7250000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.000">
+                <c:pt idx="6" formatCode="0.000">
                   <c:v>1.522</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>1.1259999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.60499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.45200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>0.33200000000000002</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>0.17199999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2989,39 +3328,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Thévenin Norton'!$H$42:$H$51</c:f>
+              <c:f>'Thévenin Norton'!$G$40:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.2415167402206919E-3</c:v>
+                  <c:v>3.1362522959416383E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0304935615869666E-3</c:v>
+                  <c:v>3.8629463646640272E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6303220968828525E-3</c:v>
+                  <c:v>2.9171388792153252E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.7167699879323557E-3</c:v>
+                  <c:v>9.3463732504422969E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.1630706804495237E-3</c:v>
+                  <c:v>-3.3382929445354703E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2107578435310629E-2</c:v>
+                  <c:v>-5.1601368493652267E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5096743432662549E-2</c:v>
+                  <c:v>-8.301240898686002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.6090891089881616E-3</c:v>
+                  <c:v>-1.2650389684553343E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7013787328933105E-2</c:v>
+                  <c:v>2.5337220119899584E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2155710753839486E-2</c:v>
+                  <c:v>-3.1385873655489505E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7664700881158346E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.126424812323302E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,10 +3572,10 @@
                   <a:t> /</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>μ</a:t>
+                  <a:t>m</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
@@ -3269,7 +3614,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3324,10 +3669,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74104269907954357"/>
-          <c:y val="0.17081195883907904"/>
-          <c:w val="0.22342955163292097"/>
-          <c:h val="0.17572389765855506"/>
+          <c:x val="0.63080657466169077"/>
+          <c:y val="0.17567064546697184"/>
+          <c:w val="0.33366567605077385"/>
+          <c:h val="0.10284524837438699"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3512,12 +3857,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="3175">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -3525,6 +3870,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Thévenin Norton'!$D$11:$D$19</c:f>
@@ -3619,12 +3978,12 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="4"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="3175">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -3632,6 +3991,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Thévenin Norton'!$D$40:$D$49</c:f>
@@ -3851,14 +4224,13 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2021584624"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="2021584624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3991,14 +4363,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67187298190313782"/>
-          <c:y val="0.17419607536763734"/>
+          <c:x val="0.67187291619454326"/>
+          <c:y val="0.17884800077359633"/>
           <c:w val="0.27073152588150473"/>
-          <c:h val="0.16884801507324593"/>
+          <c:h val="0.1502406866253545"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4021,6 +4401,2402 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>I</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> em função de V</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>L</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14073380100958807"/>
+          <c:y val="0.16285867992097752"/>
+          <c:w val="0.8220262756501201"/>
+          <c:h val="0.64217060084872402"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Circuito Original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:extLst>
+                  <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+                    <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes">
+                      <ask:type>
+                        <ask:lineSketchNone/>
+                      </ask:type>
+                    </ask:lineSketchStyleProps>
+                  </a:ext>
+                </a:extLst>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1279999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$E$13:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55D5-4D55-872C-E8C098FC018D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="663625440"/>
+        <c:axId val="663625024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="663625440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> /V</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663625024"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663625024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.2999999999999998"/>
+          <c:min val="-0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> /mA</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663625440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65295827473042667"/>
+          <c:y val="0.16201241508393885"/>
+          <c:w val="0.30806047819971871"/>
+          <c:h val="0.10731445495131159"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Resíduos de IL em função de VL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17361358188324752"/>
+          <c:y val="0.17565829488284362"/>
+          <c:w val="0.7906705676915603"/>
+          <c:h val="0.61404757705045554"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Circuito Original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$13:$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$13:$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1279999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-3.3002087349096043E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.7756349436250956E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1712624966320195E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6294206357927443E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.0471001827687729E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF05-448C-8AE8-299E5F6263B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1269790000"/>
+        <c:axId val="1269789168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1269790000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> /V</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269789168"/>
+        <c:crossesAt val="-5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1269789168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Resíduos de I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t> /</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>A</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269790000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63993090156073795"/>
+          <c:y val="0.17673199432062162"/>
+          <c:w val="0.31566526019690572"/>
+          <c:h val="0.10214822042002318"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>IL em função de VL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14171063474515927"/>
+          <c:y val="0.16343010912734554"/>
+          <c:w val="0.82079095949477543"/>
+          <c:h val="0.64091506955207234"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ciruito equivalente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$D$42:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1259999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$E$42:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-91AC-4019-9476-79CDA7EE5B92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2009309024"/>
+        <c:axId val="2009305696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2009309024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> /V</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2009305696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2009305696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> /mA</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2009309024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60615810388239932"/>
+          <c:y val="0.15588995393138974"/>
+          <c:w val="0.35278763542045061"/>
+          <c:h val="0.11952969629918903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Resíduos de IL em função de VL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17976771619699505"/>
+          <c:y val="0.17299611840962403"/>
+          <c:w val="0.78450624220882714"/>
+          <c:h val="0.61989685083990942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Circuito Equivalente</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$42:$F$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Thévenin Norton'!$F$42:$F$47</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$D$42:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1589999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>1.522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1259999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Thévenin Norton'!$H$42:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5702306557076615E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.978926889526945E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.4063123977943217E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.962430744217869E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5846290253037658E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6380269522861006E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-991E-4BD7-90CD-992B77287744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92440192"/>
+        <c:axId val="92439776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92440192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>V</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> /V</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92439776"/>
+        <c:crossesAt val="-3.5"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92439776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Resíduos de</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="-25000"/>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> /</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>A</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92440192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28625292426397192"/>
+          <c:y val="0.17070434684193372"/>
+          <c:w val="0.33366567605077385"/>
+          <c:h val="0.10284524837438699"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4280,6 +7056,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6860,20 +9796,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>41416</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2821</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50381</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>40216</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2385</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>497417</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6900,16 +11900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3693</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2197</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27138</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>2493</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>4877</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173828</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6937,15 +11937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1382389</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1193</xdr:rowOff>
+      <xdr:colOff>46647</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>108770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>605244</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>2110</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488702</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6972,16 +11972,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>201005</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53787</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>175490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>605068</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>18733</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>500594</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>156997</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7008,16 +12008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36602</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>68663</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586122</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578092</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>31506</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>60814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7037,6 +12037,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466164</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62318</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16C3A9B-1D54-456A-8DC6-BC92E4335AA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>519177</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>518933</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F692E8E-A8E8-4663-82A2-0D27CA5389E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>540667</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>126423</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CE3DBA4-7D71-4893-A254-B7F3726C78FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>536454</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>169766</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B42AC6B-3C83-417F-AA9B-55E6FAE28EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7342,48 +12494,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B4EF1B-A264-47C1-A37F-094B4D9A6EB9}">
-  <dimension ref="B3:Y72"/>
+  <dimension ref="B3:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="H49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="8.88671875" style="7"/>
-    <col min="17" max="17" width="8.88671875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" style="7" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="7"/>
-    <col min="22" max="22" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="7"/>
+    <col min="13" max="13" width="22.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="8.85546875" style="7"/>
+    <col min="21" max="21" width="8.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="7"/>
+    <col min="26" max="26" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="7" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="8">
         <v>2.42</v>
@@ -7392,9 +12547,9 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8">
         <v>3.57</v>
@@ -7403,9 +12558,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8">
         <v>677</v>
@@ -7414,111 +12569,148 @@
         <v>756</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AA9" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AD9" s="34">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="35"/>
+    </row>
+    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="4">
-        <f>T12</f>
-        <v>3.6749541485284198</v>
+      <c r="AA10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>X12</f>
+        <v>3.674132069294898</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="4">
+        <f>X19</f>
+        <v>3.6465364736784283</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>10000000</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="24">
         <v>0.05</v>
       </c>
       <c r="D11" s="1">
         <v>2.4609999999999999</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="1">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="25"/>
-      <c r="S11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="19"/>
-      <c r="W11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X11" s="4">
-        <f>T13</f>
-        <v>8.3408150383930593E-3</v>
-      </c>
-      <c r="Y11" s="10"/>
+      <c r="G11" s="2">
+        <f>(E11-(W$12*D11+X$12))</f>
+        <v>2.6206890367676261E-3</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="20"/>
+      <c r="W11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="23"/>
+      <c r="AA11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>X13</f>
+        <v>7.1375066424344529E-3</v>
+      </c>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>X20</f>
+        <v>2.2230761979651231E-3</v>
+      </c>
     </row>
-    <row r="12" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>1000000</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="1">
         <v>2.4609999999999999</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="1">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="25"/>
-      <c r="R12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="array" ref="S12:T16">LINEST(E13:E21,D13:D21,1,1)</f>
-        <v>-1.4950810947992732</v>
-      </c>
-      <c r="T12" s="11">
-        <v>3.6749541485284198</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12" s="12">
-        <f>X11/X10*100</f>
-        <v>0.22696378515995944</v>
+      <c r="G12" s="2">
+        <f>(E12-(W$12*D12+X$12))</f>
+        <v>2.6206890367676261E-3</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="20"/>
+      <c r="V12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="array" ref="W12:X16">LINEST(E11:E21,D11:D21,1,1)</f>
+        <v>-1.4939060375179463</v>
+      </c>
+      <c r="X12" s="11">
+        <v>3.674132069294898</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="12">
+        <f>AB11/AB10*100</f>
+        <v>0.19426374740536234</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE12" s="12">
+        <f>AE11/AE10*100</f>
+        <v>6.0964046678589894E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10000</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="1">
         <v>2.3069999999999999</v>
       </c>
@@ -7529,39 +12721,46 @@
         <v>1E-3</v>
       </c>
       <c r="G13" s="2">
-        <f>S$12*D13+T$12</f>
-        <v>0.22580206282649673</v>
+        <f>(E13-(W$12*D13+X$12))</f>
+        <v>1.3091592590041279E-3</v>
       </c>
       <c r="H13" s="2">
-        <f>(E13-G13)</f>
-        <v>3.1979371735032791E-3</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="R13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="11">
-        <v>5.8171216067841123E-3</v>
-      </c>
-      <c r="T13" s="11">
-        <v>8.3408150383930593E-3</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X13" s="12">
-        <f>ABS(C5-X10)/C5 *100</f>
-        <v>2.9398921156420168</v>
+        <f>(E13 - (W$19*D13+X$19))</f>
+        <v>-3.3002087349096043E-4</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="V13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="11">
+        <v>4.2782683950550867E-3</v>
+      </c>
+      <c r="X13" s="11">
+        <v>7.1375066424344529E-3</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="12">
+        <f>ABS(C5-AB10)/C5 *100</f>
+        <v>2.9168646861316012</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE13" s="12">
+        <f>ABS(C5-AE10)/C5 *100</f>
+        <v>2.1438788145218046</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>4700</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="1">
         <v>2.1549999999999998</v>
       </c>
@@ -7572,32 +12771,32 @@
         <v>1E-3</v>
       </c>
       <c r="G14" s="2">
-        <f>S$12*D14+T$12</f>
-        <v>0.4530543892359864</v>
+        <f>(E14-(W$12*D14+X$12))</f>
+        <v>-7.6455844372408377E-4</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" ref="H14:H21" si="0">(E14-G14)</f>
-        <v>9.4561076401361577E-4</v>
-      </c>
-      <c r="I14" s="25"/>
-      <c r="R14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14" s="11">
-        <v>0.99989404076701194</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1.3822293199912003E-2</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>12</v>
+        <f>(E14 - (W$19*D14+X$19))</f>
+        <v>-4.7756349436250956E-4</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="V14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="11">
+        <v>0.99992619259403037</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1.230164767613736E-2</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2200</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="1">
         <v>1.8959999999999999</v>
       </c>
@@ -7608,35 +12807,42 @@
         <v>1E-3</v>
       </c>
       <c r="G15" s="2">
-        <f>S$12*D15+T$12</f>
-        <v>0.84028039278899813</v>
+        <f>(E15-(W$12*D15+X$12))</f>
+        <v>-3.6862221608721102E-3</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.2803927889981646E-3</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13">
-        <v>66056.143367483965</v>
-      </c>
-      <c r="T15" s="14">
-        <v>7</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="4">
-        <f xml:space="preserve"> -T12/S12</f>
-        <v>2.4580299766427132</v>
-      </c>
-      <c r="Y15" s="10"/>
+        <f>(E15 - (W$19*D15+X$19))</f>
+        <v>-1.1712624966320195E-4</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13">
+        <v>121929.98270443629</v>
+      </c>
+      <c r="X15" s="14">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="4">
+        <f xml:space="preserve"> -X12/W12</f>
+        <v>2.4594130936101535</v>
+      </c>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="4">
+        <f xml:space="preserve"> -X19/W19</f>
+        <v>2.461823644828621</v>
+      </c>
     </row>
-    <row r="16" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>1500</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="1">
         <v>1.7230000000000001</v>
       </c>
@@ -7647,34 +12853,41 @@
         <v>1E-3</v>
       </c>
       <c r="G16" s="2">
-        <f>S$12*D16+T$12</f>
-        <v>1.098929422189272</v>
+        <f>(E16-(W$12*D16+X$12))</f>
+        <v>-4.1319666514763043E-3</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.9294221892719463E-3</v>
-      </c>
-      <c r="I16" s="25"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="13">
-        <v>12.62040860947487</v>
-      </c>
-      <c r="T16" s="15">
-        <v>1.3373905251303352E-3</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="4">
-        <f>SQRT((T13/S12)^2+(T12*S13/(S12)^2)^2)</f>
-        <v>1.1072024981291367E-2</v>
+        <f>(E16 - (W$19*D16+X$19))</f>
+        <v>1.6294206357927443E-3</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="13">
+        <v>18.451729581998251</v>
+      </c>
+      <c r="X16" s="15">
+        <v>1.3619748199303412E-3</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB16" s="4">
+        <f>SQRT((X13/W12)^2+(X12*W13/(W12)^2)^2)</f>
+        <v>8.5108730367310943E-3</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE16" s="4">
+        <f>SQRT((X20/W19)^2+(X19*W20/(W19)^2)^2)</f>
+        <v>2.4671146231834938E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>470</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="1">
         <v>1.1279999999999999</v>
       </c>
@@ -7685,27 +12898,34 @@
         <v>1E-3</v>
       </c>
       <c r="G17" s="2">
-        <f>S$12*D17+T$12</f>
-        <v>1.9885026735948399</v>
+        <f>(E17-(W$12*D17+X$12))</f>
+        <v>-1.4006058974654678E-2</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.3502673594839809E-2</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="W17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X17" s="12">
-        <f>X16/X15*100</f>
-        <v>0.45044304123638201</v>
+        <f>(E17 - (W$19*D17+X$19))</f>
+        <v>-7.0471001827687729E-4</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="AA17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="12">
+        <f>AB16/AB15*100</f>
+        <v>0.34605300991701438</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE17" s="12">
+        <f>AE16/AE15*100</f>
+        <v>0.10021492109583019</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>220</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="1">
         <v>0.60399999999999998</v>
       </c>
@@ -7716,27 +12936,35 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="2">
-        <f>S$12*D18+T$12</f>
-        <v>2.771925167269659</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8074832730340837E-2</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="W18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X18" s="12">
-        <f>ABS(X15-C4)/C4*100</f>
-        <v>1.5714866381286461</v>
+        <f>(E18-(W$12*D18+X$12))</f>
+        <v>2.8187177365941452E-2</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="20"/>
+      <c r="W18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="23"/>
+      <c r="AA18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="12">
+        <f>ABS(AB15-C4)/C4*100</f>
+        <v>1.628640231824527</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE18" s="12">
+        <f>ABS(AE15-C4)/C4*100</f>
+        <v>1.7282497863066575</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>150</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="1">
         <v>0.45100000000000001</v>
       </c>
@@ -7747,21 +12975,31 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="2">
-        <f>S$12*D19+T$12</f>
-        <v>3.0006725747739473</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.7257477394733201E-4</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="Y19" s="10"/>
+        <f>(E19-(W$12*D19+X$12))</f>
+        <v>-3.8044637430445505E-4</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="20"/>
+      <c r="V19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="17">
+        <f t="array" ref="W19:X21">LINEST(E13:E17,D13:D17,1,1)</f>
+        <v>-1.4812338330320491</v>
+      </c>
+      <c r="X19" s="17">
+        <v>3.6465364736784283</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC19" s="10"/>
     </row>
-    <row r="20" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>100</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="17">
         <v>0.32100000000000001</v>
       </c>
@@ -7772,27 +13010,43 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="2">
-        <f>S$12*D20+T$12</f>
-        <v>3.1950331170978532</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>4.966882902146974E-3</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="W20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X20" s="16">
-        <f xml:space="preserve"> -1/S12*1000</f>
-        <v>668.86003941763317</v>
+        <f>(E20-(W$12*D20+X$12))</f>
+        <v>5.4117687483627996E-3</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="20"/>
+      <c r="V20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W20" s="17">
+        <v>1.1781551241016148E-3</v>
+      </c>
+      <c r="X20" s="17">
+        <v>2.2230761979651231E-3</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="16">
+        <f xml:space="preserve"> -1/W12*1000</f>
+        <v>669.38614269305208</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE20" s="16">
+        <f xml:space="preserve"> -1/W19*1000</f>
+        <v>675.11285368970039</v>
       </c>
     </row>
-    <row r="21" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>47</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="19">
         <v>0.01</v>
       </c>
       <c r="D21" s="17">
@@ -7805,94 +13059,132 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="2">
-        <f>S$12*D21+T$12</f>
-        <v>3.4178002002229451</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.7800200222945151E-2</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="W21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X21" s="16">
-        <f>S13/S12^2</f>
-        <v>2.6024275209855182E-3</v>
+        <f>(E21-(W$12*D21+X$12))</f>
+        <v>-1.7180230841811195E-2</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="20"/>
+      <c r="V21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="17">
+        <v>0.99999810207897533</v>
+      </c>
+      <c r="X21" s="17">
+        <v>1.080482460856352E-3</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB21" s="16">
+        <f>W13/W12^2</f>
+        <v>1.9169971246180977E-3</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE21" s="4">
+        <f>W20/W19^2</f>
+        <v>5.3697643828000158E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="W22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" s="12">
-        <f>X21/X20*100</f>
-        <v>3.8908401872107871E-4</v>
+    <row r="22" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+      <c r="AA22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>AB21/AB20*100</f>
+        <v>2.8638135783715194E-4</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE22" s="21">
+        <f>AE21/AE20*100</f>
+        <v>7.9538766792138448E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="W23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X23" s="12">
-        <f>ABS(X20-C6)/C6*100</f>
-        <v>1.2023575454013036</v>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AA23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>ABS(AB20-C6)/C6*100</f>
+        <v>1.1246465741429721</v>
+      </c>
+      <c r="AD23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE23" s="12">
+        <f>ABS(AE20-C6)/C6*100</f>
+        <v>0.2787513013736504</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>2.4649999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C37" s="7">
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="X39" s="4">
-        <f>T41</f>
-        <v>3.6792629211928194</v>
+        <v>34</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB39" s="4">
+        <f>X41</f>
+        <v>3.6781128683029527</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="4">
+        <f>X51</f>
+        <v>3.6500097552262942</v>
       </c>
     </row>
-    <row r="40" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>10000000</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="24">
         <v>0.05</v>
       </c>
       <c r="D40" s="1">
@@ -7901,68 +13193,88 @@
       <c r="E40" s="3">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
+      <c r="G40" s="3">
+        <f>(E40-(W$41*D40+X$41))</f>
+        <v>3.1362522959416383E-3</v>
+      </c>
+      <c r="H40" s="30"/>
       <c r="I40" s="9"/>
-      <c r="S40" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="T40" s="19"/>
-      <c r="W40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X40" s="4">
-        <f>T42</f>
-        <v>8.7229057036632834E-3</v>
-      </c>
-      <c r="Y40" s="9"/>
+      <c r="W40" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X40" s="23"/>
+      <c r="AA40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB40" s="4">
+        <f>X42</f>
+        <v>7.5539774094392186E-3</v>
+      </c>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE40" s="4">
+        <f>X42</f>
+        <v>7.5539774094392186E-3</v>
+      </c>
     </row>
-    <row r="41" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>1000000</v>
       </c>
-      <c r="C41" s="21"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="1">
         <v>2.464</v>
       </c>
       <c r="E41" s="3">
         <v>2.47E-3</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
+      <c r="G41" s="3">
+        <f>(E41-(W$41*D41+X$41))</f>
+        <v>3.8629463646640272E-3</v>
+      </c>
+      <c r="H41" s="31"/>
       <c r="I41" s="9"/>
-      <c r="R41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S41" s="11">
-        <f t="array" ref="S41:T43">LINEST(E42:E51,D42:D51,1,1)</f>
-        <v>-1.4948093630173258</v>
-      </c>
-      <c r="T41" s="11">
-        <v>3.6792629211928194</v>
-      </c>
-      <c r="U41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="X41" s="12">
-        <f>X40/X39*100</f>
-        <v>0.23708296717309105</v>
+      <c r="V41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="11">
+        <f t="array" ref="W41:X43">LINEST(E40:E51,D40:D51,1,1)</f>
+        <v>-1.4933059312774419</v>
+      </c>
+      <c r="X41" s="11">
+        <v>3.6781128683029527</v>
+      </c>
+      <c r="Y41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB41" s="12">
+        <f>AB40/AB39*100</f>
+        <v>0.20537644384264245</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE41" s="12">
+        <f>AE40/AE39*100</f>
+        <v>0.2069577320614828</v>
       </c>
     </row>
-    <row r="42" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>10000</v>
       </c>
-      <c r="C42" s="21"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="1">
         <v>2.3109999999999999</v>
       </c>
@@ -7972,40 +13284,47 @@
       <c r="F42" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" ref="G40:G51" si="1">(S$41*D42+T$41)</f>
-        <v>0.22475848325977932</v>
+      <c r="G42" s="3">
+        <f>(E42-(W$41*D42+X$41))</f>
+        <v>2.9171388792153252E-3</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" ref="H40:H51" si="2">(E42-G42)</f>
-        <v>5.2415167402206919E-3</v>
+        <f t="array" ref="H42">(E42-(W$51*D42+X$51))</f>
+        <v>2.5702306557076615E-4</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="R42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S42" s="11">
-        <v>6.0357927716136114E-3</v>
-      </c>
-      <c r="T42" s="11">
-        <v>8.7229057036632834E-3</v>
-      </c>
-      <c r="U42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X42" s="12">
-        <f>ABS(C5-X39)/C5 *100</f>
-        <v>3.0605860278100714</v>
+      <c r="V42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W42" s="11">
+        <v>4.5529131323439193E-3</v>
+      </c>
+      <c r="X42" s="11">
+        <v>7.5539774094392186E-3</v>
+      </c>
+      <c r="Y42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB42" s="12">
+        <f>ABS(C5-AB39)/C5 *100</f>
+        <v>3.0283716611471387</v>
+      </c>
+      <c r="AD42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE42" s="12">
+        <f>ABS(C5-AE39)/C5 *100</f>
+        <v>2.2411696141819157</v>
       </c>
     </row>
-    <row r="43" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>4700</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="1">
         <v>2.1589999999999998</v>
       </c>
@@ -8015,33 +13334,33 @@
       <c r="F43" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="1"/>
-        <v>0.45196950643841305</v>
+      <c r="G43" s="3">
+        <f>(E43-(W$41*D43+X$41))</f>
+        <v>9.3463732504422969E-4</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="2"/>
-        <v>3.0304935615869666E-3</v>
+        <f t="array" ref="H43">(E43-(W$51*D43+X$51))</f>
+        <v>2.978926889526945E-4</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="R43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S43" s="11">
-        <v>0.99986958415287441</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1.4466553186537716E-2</v>
-      </c>
-      <c r="U43" s="6" t="s">
-        <v>12</v>
+      <c r="V43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="11">
+        <v>0.99990705184371309</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1.3103019539363775E-2</v>
+      </c>
+      <c r="Y43" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>2200</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="1">
         <v>1.901</v>
       </c>
@@ -8051,32 +13370,39 @@
       <c r="F44" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G44" s="2">
-        <f t="shared" si="1"/>
-        <v>0.83763032209688282</v>
+      <c r="G44" s="3">
+        <f>(E44-(W$41*D44+X$41))</f>
+        <v>-3.3382929445354703E-3</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.6303220968828525E-3</v>
+        <f t="array" ref="H44">(E44-(W$51*D44+X$51))</f>
+        <v>-5.4063123977943217E-4</v>
       </c>
       <c r="I44" s="9"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="14"/>
-      <c r="W44" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="X44" s="4">
-        <f xml:space="preserve"> -T41/S41</f>
-        <v>2.4613592958543533</v>
-      </c>
-      <c r="Y44" s="9"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="14"/>
+      <c r="AA44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="4">
+        <f xml:space="preserve"> -X41/W41</f>
+        <v>2.4630672063001366</v>
+      </c>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE44" s="4">
+        <f xml:space="preserve"> -X51/W51</f>
+        <v>2.4662323412504752</v>
+      </c>
     </row>
-    <row r="45" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>1500</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="1">
         <v>1.7250000000000001</v>
       </c>
@@ -8086,31 +13412,38 @@
       <c r="F45" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1007167699879323</v>
+      <c r="G45" s="3">
+        <f>(E45-(W$41*D45+X$41))</f>
+        <v>-5.1601368493652267E-3</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="2"/>
-        <v>-3.7167699879323557E-3</v>
+        <f t="array" ref="H45">(E45-(W$51*D45+X$51))</f>
+        <v>-1.962430744217869E-5</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="15"/>
-      <c r="W45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X45" s="4">
-        <f>SQRT((T42/S41)^2+(T41*S42/(S41)^2)^2)</f>
-        <v>1.1525087369283276E-2</v>
+      <c r="V45" s="14"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="15"/>
+      <c r="AA45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB45" s="4">
+        <f>SQRT((X42/W41)^2+(X41*W42/(W41)^2)^2)</f>
+        <v>9.0544534853088041E-3</v>
+      </c>
+      <c r="AD45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE45" s="4">
+        <f>SQRT((X52/W51)^2+(X51*W52/(W51)^2)^2)</f>
+        <v>1.0021219388169883E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="4">
         <v>1.522</v>
       </c>
@@ -8120,28 +13453,35 @@
       <c r="F46" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="1"/>
-        <v>1.4041630706804495</v>
+      <c r="G46" s="3">
+        <f>(E46-(W$41*D46+X$41))</f>
+        <v>-8.301240898686002E-3</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="2"/>
-        <v>-7.1630706804495237E-3</v>
+        <f t="array" ref="H46">(E46-(W$51*D46+X$51))</f>
+        <v>-4.5846290253037658E-4</v>
       </c>
       <c r="I46" s="9"/>
-      <c r="W46" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X46" s="12">
-        <f>X45/X44*100</f>
-        <v>0.46824075577648833</v>
+      <c r="AA46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB46" s="12">
+        <f>AB45/AB44*100</f>
+        <v>0.36760886841207352</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE46" s="12">
+        <f>AE45/AE44*100</f>
+        <v>4.0633719786063366E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>470</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="1">
         <v>1.1259999999999999</v>
       </c>
@@ -8151,28 +13491,35 @@
       <c r="F47" s="1">
         <v>1E-3</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9961075784353106</v>
+      <c r="G47" s="3">
+        <f>(E47-(W$41*D47+X$41))</f>
+        <v>-1.2650389684553343E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.2107578435310629E-2</v>
+        <f t="array" ref="H47">(E47-(W$51*D47+X$51))</f>
+        <v>4.6380269522861006E-4</v>
       </c>
       <c r="I47" s="9"/>
-      <c r="W47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X47" s="12">
-        <f>ABS(X44-C4)/C4*100</f>
-        <v>1.7090618121633629</v>
+      <c r="AA47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB47" s="12">
+        <f>ABS(AB44-C4)/C4*100</f>
+        <v>1.7796366239725918</v>
+      </c>
+      <c r="AD47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE47" s="12">
+        <f>ABS(AE44-C4)/C4*100</f>
+        <v>1.9104273243998042</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>220</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="1">
         <v>0.60499999999999998</v>
       </c>
@@ -8182,22 +13529,19 @@
       <c r="F48" s="1">
         <v>0.1</v>
       </c>
-      <c r="G48" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7749032565673373</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="2"/>
-        <v>2.5096743432662549E-2</v>
-      </c>
+      <c r="G48" s="3">
+        <f>(E48-(W$41*D48+X$41))</f>
+        <v>2.5337220119899584E-2</v>
+      </c>
+      <c r="H48" s="30"/>
       <c r="I48" s="9"/>
-      <c r="Y48" s="9"/>
+      <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>150</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="1">
         <v>0.45200000000000001</v>
       </c>
@@ -8207,28 +13551,32 @@
       <c r="F49" s="1">
         <v>0.1</v>
       </c>
-      <c r="G49" s="2">
-        <f t="shared" si="1"/>
-        <v>3.0036090891089882</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="2"/>
-        <v>-3.6090891089881616E-3</v>
-      </c>
+      <c r="G49" s="3">
+        <f>(E49-(W$41*D49+X$41))</f>
+        <v>-3.1385873655489505E-3</v>
+      </c>
+      <c r="H49" s="32"/>
       <c r="I49" s="9"/>
-      <c r="W49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X49" s="16">
-        <f xml:space="preserve"> -1/S41*1000</f>
-        <v>668.98162718319111</v>
+      <c r="AA49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB49" s="16">
+        <f xml:space="preserve"> -1/W41*1000</f>
+        <v>669.65514504087889</v>
+      </c>
+      <c r="AD49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE49" s="16">
+        <f xml:space="preserve"> -1/W51*1000</f>
+        <v>675.67828763174725</v>
       </c>
     </row>
-    <row r="50" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="17">
         <v>100</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="17">
         <v>0.33200000000000002</v>
       </c>
@@ -8238,27 +13586,35 @@
       <c r="F50" s="1">
         <v>0.1</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1829862126710671</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="2"/>
-        <v>1.7013787328933105E-2</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X50" s="4">
-        <f>S42/S41^2</f>
-        <v>2.7012370738326822E-3</v>
+      <c r="G50" s="3">
+        <f>(E50-(W$41*D50+X$41))</f>
+        <v>1.7664700881158346E-2</v>
+      </c>
+      <c r="H50" s="32"/>
+      <c r="W50" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X50" s="23"/>
+      <c r="AA50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB50" s="4">
+        <f>W42/W41^2</f>
+        <v>2.0416993197034561E-3</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE50" s="21">
+        <f>W52/W51^2</f>
+        <v>2.2032363385601143E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:31" ht="18" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
         <v>47</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="19">
         <v>0.01</v>
       </c>
       <c r="D51" s="17">
@@ -8270,91 +13626,207 @@
       <c r="F51" s="17">
         <v>0.1</v>
       </c>
-      <c r="G51" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4221557107538394</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="2"/>
-        <v>-2.2155710753839486E-2</v>
-      </c>
-      <c r="W51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="X51" s="26">
-        <f>X50/X49*100</f>
-        <v>4.0378344696946161E-4</v>
+      <c r="G51" s="3">
+        <f>(E51-(W$41*D51+X$41))</f>
+        <v>-2.126424812323302E-2</v>
+      </c>
+      <c r="H51" s="31"/>
+      <c r="V51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W51" s="11">
+        <f t="array" ref="W51:X53">LINEST(E42:E47,D42:D47,1,1)</f>
+        <v>-1.4799942787935374</v>
+      </c>
+      <c r="X51" s="11">
+        <v>3.6500097552262942</v>
+      </c>
+      <c r="Y51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB51" s="21">
+        <f>AB50/AB49*100</f>
+        <v>3.0488817039982886E-4</v>
+      </c>
+      <c r="AD51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE51" s="33">
+        <f>AE50/AE49*100</f>
+        <v>3.26077717589899E-5</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="W52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X52" s="12">
-        <f>ABS(X49-C6)/C6*100</f>
-        <v>1.1843977572834405</v>
+    <row r="52" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+      <c r="V52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W52" s="11">
+        <v>4.8259315647510541E-4</v>
+      </c>
+      <c r="X52" s="11">
+        <v>8.8495418363235072E-4</v>
+      </c>
+      <c r="Y52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB52" s="12">
+        <f>ABS(AB49-C6)/C6*100</f>
+        <v>1.0849121062217293</v>
+      </c>
+      <c r="AD52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE52" s="12">
+        <f>ABS(AE49-C6)/C6*100</f>
+        <v>0.19523077817618129</v>
       </c>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I68" s="19" t="s">
-        <v>21</v>
+    <row r="53" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+      <c r="V53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="W53" s="22">
+        <v>0.99999957469346934</v>
+      </c>
+      <c r="X53" s="3">
+        <v>4.6711062242594056E-4</v>
+      </c>
+      <c r="Y53" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I67" s="34">
+        <v>1</v>
+      </c>
+      <c r="J67" s="36"/>
+      <c r="K67" s="35"/>
+      <c r="M67" s="23">
+        <v>2</v>
+      </c>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+    </row>
+    <row r="68" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I68" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K68" s="12">
-        <f>(S41-S12)/S12*100</f>
-        <v>-1.8175053038435699E-2</v>
+        <f>(W41-W12)/W12*100</f>
+        <v>-4.01702801537221E-2</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O68" s="12">
+        <f>(W51-W19)/W19*100</f>
+        <v>-8.3683899926482577E-2</v>
       </c>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
-      <c r="I69" s="19"/>
+    <row r="69" spans="9:22" x14ac:dyDescent="0.25">
+      <c r="I69" s="23"/>
       <c r="J69" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K69" s="12">
-        <f>-(T41-T12)/T12*100</f>
-        <v>-0.11724697752011233</v>
-      </c>
+        <f>-(X41-X12)/X12*100</f>
+        <v>-0.10834664984752868</v>
+      </c>
+      <c r="M69" s="23"/>
+      <c r="N69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O69" s="12">
+        <f>-(X51-X19)/X19*100</f>
+        <v>-9.5248781218478032E-2</v>
+      </c>
+      <c r="V69" s="18"/>
     </row>
-    <row r="70" spans="9:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I70" s="19"/>
+    <row r="70" spans="9:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="I70" s="23"/>
       <c r="J70" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K70" s="12">
-        <f>(X10-X39)/X10*100</f>
-        <v>-0.11724697752011233</v>
+        <f>(AB10-AB39)/AB10*100</f>
+        <v>-0.10834664984752868</v>
+      </c>
+      <c r="M70" s="23"/>
+      <c r="N70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" s="12">
+        <f>(AE10-AE39)/AE10*100</f>
+        <v>-9.5248781218478032E-2</v>
       </c>
     </row>
-    <row r="71" spans="9:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I71" s="19"/>
+    <row r="71" spans="9:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="I71" s="23"/>
       <c r="J71" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K71" s="12">
-        <f>(X15-X44)/X15*100</f>
-        <v>-0.13544664805868151</v>
+        <f>(AB15-AB44)/AB15*100</f>
+        <v>-0.14857661364318936</v>
+      </c>
+      <c r="M71" s="23"/>
+      <c r="N71" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" s="12">
+        <f>(AE15-AE44)/AE15*100</f>
+        <v>-0.1790825444022032</v>
       </c>
     </row>
-    <row r="72" spans="9:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I72" s="19"/>
+    <row r="72" spans="9:22" ht="18" x14ac:dyDescent="0.25">
+      <c r="I72" s="23"/>
       <c r="J72" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K72" s="12">
-        <f>(X20-X49)/X20*100</f>
-        <v>-1.8178356964455241E-2</v>
+        <f>(AB20-AB49)/AB20*100</f>
+        <v>-4.0186423152497867E-2</v>
+      </c>
+      <c r="M72" s="23"/>
+      <c r="N72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="12">
+        <f>(AE20-AE49)/AE20*100</f>
+        <v>-8.3753988530450088E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="17">
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="W50:X50"/>
     <mergeCell ref="I68:I72"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W40:X40"/>
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="C40:C50"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="M68:M72"/>
+    <mergeCell ref="H48:H51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/-114/T1B/T1B.xlsx
+++ b/-114/T1B/T1B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\-114\T1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801E212-5CAE-48D4-B9BF-168A9DFA7AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055CB243-DFB9-41BD-BF03-9BB891409362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BBBEBA2-0569-494E-BBE3-128569D26559}"/>
   </bookViews>
@@ -1004,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,9 +1034,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1072,6 +1069,18 @@
     <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,10 +1096,10 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,16 +1111,13 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11865,15 +11871,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50381</xdr:colOff>
+      <xdr:colOff>50380</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>497417</xdr:colOff>
+      <xdr:colOff>484763</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>71283</xdr:rowOff>
+      <xdr:rowOff>221964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11901,15 +11907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27138</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>125980</xdr:rowOff>
+      <xdr:colOff>38342</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>475130</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>173828</xdr:rowOff>
+      <xdr:colOff>472725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>126067</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11943,9 +11949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>488702</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>127615</xdr:rowOff>
+      <xdr:colOff>481030</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11979,9 +11985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>500594</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>156997</xdr:rowOff>
+      <xdr:colOff>488170</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>63519</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12015,9 +12021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>639504</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>60814</xdr:rowOff>
+      <xdr:rowOff>126505</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12044,16 +12050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>546847</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>62318</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>900547</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12082,16 +12088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>519177</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>125507</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14912</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>518933</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>897530</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103183</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12126,10 +12132,10 @@
       <xdr:rowOff>107578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>540667</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>835553</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18019</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12164,10 +12170,10 @@
       <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>536454</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>169766</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>826588</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12494,10 +12500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B4EF1B-A264-47C1-A37F-094B4D9A6EB9}">
-  <dimension ref="B3:AE72"/>
+  <dimension ref="B3:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="M38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12512,74 +12518,74 @@
     <col min="9" max="9" width="20.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="8.85546875" style="7"/>
     <col min="13" max="13" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="8.85546875" style="7"/>
-    <col min="21" max="21" width="8.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="7"/>
-    <col min="26" max="26" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="7" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="7"/>
+    <col min="14" max="21" width="8.85546875" style="7"/>
+    <col min="22" max="22" width="15.85546875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="7" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="7"/>
+    <col min="27" max="27" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" style="7" customWidth="1"/>
+    <col min="30" max="30" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="7" customWidth="1"/>
+    <col min="33" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8">
         <v>2.42</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8">
         <v>3.57</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="8">
         <v>677</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AA9" s="34">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AB9" s="23">
         <v>1</v>
       </c>
-      <c r="AB9" s="35"/>
-      <c r="AD9" s="34">
+      <c r="AC9" s="25"/>
+      <c r="AE9" s="23">
         <v>2</v>
       </c>
-      <c r="AE9" s="35"/>
+      <c r="AF9" s="25"/>
     </row>
-    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -12601,26 +12607,26 @@
       <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AB10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="4">
-        <f>X12</f>
+      <c r="AC10" s="4">
+        <f>Y12</f>
         <v>3.674132069294898</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AE10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE10" s="4">
-        <f>X19</f>
+      <c r="AF10" s="4">
+        <f>Y19</f>
         <v>3.6465364736784283</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>10000000</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="27">
         <v>0.05</v>
       </c>
       <c r="D11" s="1">
@@ -12633,36 +12639,36 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G11" s="2">
-        <f>(E11-(W$12*D11+X$12))</f>
+        <f t="shared" ref="G11:G21" si="0">(E11-(X$12*D11+Y$12))</f>
         <v>2.6206890367676261E-3</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="20"/>
-      <c r="W11" s="23" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="19"/>
+      <c r="X11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="23"/>
-      <c r="AA11" s="5" t="s">
+      <c r="Y11" s="26"/>
+      <c r="AB11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB11" s="4">
-        <f>X13</f>
+      <c r="AC11" s="4">
+        <f>Y13</f>
         <v>7.1375066424344529E-3</v>
       </c>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="4">
-        <f>X20</f>
+      <c r="AF11" s="4">
+        <f>Y20</f>
         <v>2.2230761979651231E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>1000000</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="1">
         <v>2.4609999999999999</v>
       </c>
@@ -12673,44 +12679,44 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G12" s="2">
-        <f>(E12-(W$12*D12+X$12))</f>
+        <f t="shared" si="0"/>
         <v>2.6206890367676261E-3</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="20"/>
-      <c r="V12" s="6" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="19"/>
+      <c r="W12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W12" s="11">
-        <f t="array" ref="W12:X16">LINEST(E11:E21,D11:D21,1,1)</f>
+      <c r="X12" s="4">
+        <f t="array" ref="X12:Y16">LINEST(E11:E21,D11:D21,1,1)</f>
         <v>-1.4939060375179463</v>
       </c>
-      <c r="X12" s="11">
+      <c r="Y12" s="4">
         <v>3.674132069294898</v>
       </c>
-      <c r="Y12" s="6" t="s">
+      <c r="Z12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AB12" s="12">
-        <f>AB11/AB10*100</f>
+      <c r="AC12" s="15">
+        <f>AC11/AC10*100</f>
         <v>0.19426374740536234</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AE12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AE12" s="12">
-        <f>AE11/AE10*100</f>
+      <c r="AF12" s="11">
+        <f>AF11/AF10*100</f>
         <v>6.0964046678589894E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10000</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="1">
         <v>2.3069999999999999</v>
       </c>
@@ -12721,46 +12727,46 @@
         <v>1E-3</v>
       </c>
       <c r="G13" s="2">
-        <f>(E13-(W$12*D13+X$12))</f>
+        <f t="shared" si="0"/>
         <v>1.3091592590041279E-3</v>
       </c>
       <c r="H13" s="2">
-        <f>(E13 - (W$19*D13+X$19))</f>
+        <f>(E13 - (X$19*D13+Y$19))</f>
         <v>-3.3002087349096043E-4</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="V13" s="6" t="s">
+      <c r="I13" s="19"/>
+      <c r="W13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W13" s="11">
+      <c r="X13" s="4">
         <v>4.2782683950550867E-3</v>
       </c>
-      <c r="X13" s="11">
+      <c r="Y13" s="4">
         <v>7.1375066424344529E-3</v>
       </c>
-      <c r="Y13" s="6" t="s">
+      <c r="Z13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AB13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AB13" s="12">
-        <f>ABS(C5-AB10)/C5 *100</f>
+      <c r="AC13" s="36">
+        <f>ABS(C5-AC10)/C5 *100</f>
         <v>2.9168646861316012</v>
       </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AE13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE13" s="12">
-        <f>ABS(C5-AE10)/C5 *100</f>
+      <c r="AF13" s="36">
+        <f>ABS(C5-AF10)/C5 *100</f>
         <v>2.1438788145218046</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>4700</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="1">
         <v>2.1549999999999998</v>
       </c>
@@ -12771,32 +12777,32 @@
         <v>1E-3</v>
       </c>
       <c r="G14" s="2">
-        <f>(E14-(W$12*D14+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-7.6455844372408377E-4</v>
       </c>
       <c r="H14" s="2">
-        <f>(E14 - (W$19*D14+X$19))</f>
+        <f>(E14 - (X$19*D14+Y$19))</f>
         <v>-4.7756349436250956E-4</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="V14" s="6" t="s">
+      <c r="I14" s="19"/>
+      <c r="W14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="11">
+      <c r="X14" s="22">
         <v>0.99992619259403037</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="11">
         <v>1.230164767613736E-2</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Z14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>2200</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="1">
         <v>1.8959999999999999</v>
       </c>
@@ -12807,42 +12813,42 @@
         <v>1E-3</v>
       </c>
       <c r="G15" s="2">
-        <f>(E15-(W$12*D15+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-3.6862221608721102E-3</v>
       </c>
       <c r="H15" s="2">
-        <f>(E15 - (W$19*D15+X$19))</f>
+        <f>(E15 - (X$19*D15+Y$19))</f>
         <v>-1.1712624966320195E-4</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13">
+      <c r="I15" s="19"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12">
         <v>121929.98270443629</v>
       </c>
-      <c r="X15" s="14">
+      <c r="Y15" s="13">
         <v>9</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AB15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="4">
-        <f xml:space="preserve"> -X12/W12</f>
+      <c r="AC15" s="4">
+        <f xml:space="preserve"> -Y12/X12</f>
         <v>2.4594130936101535</v>
       </c>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE15" s="4">
-        <f xml:space="preserve"> -X19/W19</f>
+      <c r="AF15" s="4">
+        <f xml:space="preserve"> -Y19/X19</f>
         <v>2.461823644828621</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>1500</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="1">
         <v>1.7230000000000001</v>
       </c>
@@ -12853,41 +12859,41 @@
         <v>1E-3</v>
       </c>
       <c r="G16" s="2">
-        <f>(E16-(W$12*D16+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-4.1319666514763043E-3</v>
       </c>
       <c r="H16" s="2">
-        <f>(E16 - (W$19*D16+X$19))</f>
+        <f>(E16 - (X$19*D16+Y$19))</f>
         <v>1.6294206357927443E-3</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="13">
+      <c r="I16" s="19"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="12">
         <v>18.451729581998251</v>
       </c>
-      <c r="X16" s="15">
+      <c r="Y16" s="14">
         <v>1.3619748199303412E-3</v>
       </c>
-      <c r="AA16" s="5" t="s">
+      <c r="AB16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AB16" s="4">
-        <f>SQRT((X13/W12)^2+(X12*W13/(W12)^2)^2)</f>
+      <c r="AC16" s="4">
+        <f>SQRT((Y13/X12)^2+(Y12*X13/(X12)^2)^2)</f>
         <v>8.5108730367310943E-3</v>
       </c>
-      <c r="AD16" s="5" t="s">
+      <c r="AE16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AE16" s="4">
-        <f>SQRT((X20/W19)^2+(X19*W20/(W19)^2)^2)</f>
+      <c r="AF16" s="4">
+        <f>SQRT((Y20/X19)^2+(Y19*X20/(X19)^2)^2)</f>
         <v>2.4671146231834938E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>470</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="1">
         <v>1.1279999999999999</v>
       </c>
@@ -12898,34 +12904,34 @@
         <v>1E-3</v>
       </c>
       <c r="G17" s="2">
-        <f>(E17-(W$12*D17+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-1.4006058974654678E-2</v>
       </c>
       <c r="H17" s="2">
-        <f>(E17 - (W$19*D17+X$19))</f>
+        <f>(E17 - (X$19*D17+Y$19))</f>
         <v>-7.0471001827687729E-4</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="AA17" s="5" t="s">
+      <c r="I17" s="19"/>
+      <c r="AB17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AB17" s="12">
-        <f>AB16/AB15*100</f>
+      <c r="AC17" s="15">
+        <f>AC16/AC15*100</f>
         <v>0.34605300991701438</v>
       </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AE17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE17" s="12">
-        <f>AE16/AE15*100</f>
+      <c r="AF17" s="15">
+        <f>AF16/AF15*100</f>
         <v>0.10021492109583019</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>220</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="1">
         <v>0.60399999999999998</v>
       </c>
@@ -12936,35 +12942,35 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="2">
-        <f>(E18-(W$12*D18+X$12))</f>
+        <f t="shared" si="0"/>
         <v>2.8187177365941452E-2</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="20"/>
-      <c r="W18" s="23" t="s">
+      <c r="H18" s="30"/>
+      <c r="I18" s="19"/>
+      <c r="X18" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="23"/>
-      <c r="AA18" s="5" t="s">
+      <c r="Y18" s="26"/>
+      <c r="AB18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AB18" s="12">
-        <f>ABS(AB15-C4)/C4*100</f>
+      <c r="AC18" s="36">
+        <f>ABS(AC15-C4)/C4*100</f>
         <v>1.628640231824527</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AE18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE18" s="12">
-        <f>ABS(AE15-C4)/C4*100</f>
+      <c r="AF18" s="36">
+        <f>ABS(AF15-C4)/C4*100</f>
         <v>1.7282497863066575</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>150</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="1">
         <v>0.45100000000000001</v>
       </c>
@@ -12975,159 +12981,159 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="2">
-        <f>(E19-(W$12*D19+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-3.8044637430445505E-4</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="20"/>
-      <c r="V19" s="6" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="19"/>
+      <c r="W19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W19" s="17">
-        <f t="array" ref="W19:X21">LINEST(E13:E17,D13:D17,1,1)</f>
+      <c r="X19" s="38">
+        <f t="array" ref="X19:Y21">LINEST(E13:E17,D13:D17,1,1)</f>
         <v>-1.4812338330320491</v>
       </c>
-      <c r="X19" s="17">
+      <c r="Y19" s="38">
         <v>3.6465364736784283</v>
       </c>
-      <c r="Y19" s="6" t="s">
+      <c r="Z19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>100</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="17">
+      <c r="C20" s="28"/>
+      <c r="D20" s="16">
         <v>0.32100000000000001</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>3.2</v>
       </c>
       <c r="F20" s="1">
         <v>0.1</v>
       </c>
       <c r="G20" s="2">
-        <f>(E20-(W$12*D20+X$12))</f>
+        <f t="shared" si="0"/>
         <v>5.4117687483627996E-3</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="20"/>
-      <c r="V20" s="6" t="s">
+      <c r="H20" s="32"/>
+      <c r="I20" s="19"/>
+      <c r="W20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W20" s="17">
+      <c r="X20" s="38">
         <v>1.1781551241016148E-3</v>
       </c>
-      <c r="X20" s="17">
+      <c r="Y20" s="38">
         <v>2.2230761979651231E-3</v>
       </c>
-      <c r="Y20" s="6" t="s">
+      <c r="Z20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AB20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB20" s="16">
-        <f xml:space="preserve"> -1/W12*1000</f>
+      <c r="AC20" s="36">
+        <f xml:space="preserve"> -1/X12*1000</f>
         <v>669.38614269305208</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AE20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AE20" s="16">
-        <f xml:space="preserve"> -1/W19*1000</f>
+      <c r="AF20" s="36">
+        <f xml:space="preserve"> -1/X19*1000</f>
         <v>675.11285368970039</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>47</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>0.01</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>3.4</v>
       </c>
       <c r="F21" s="1">
         <v>0.1</v>
       </c>
       <c r="G21" s="2">
-        <f>(E21-(W$12*D21+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-1.7180230841811195E-2</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="20"/>
-      <c r="V21" s="6" t="s">
+      <c r="H21" s="31"/>
+      <c r="I21" s="19"/>
+      <c r="W21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="17">
+      <c r="X21" s="37">
         <v>0.99999810207897533</v>
       </c>
-      <c r="X21" s="17">
+      <c r="Y21" s="38">
         <v>1.080482460856352E-3</v>
       </c>
-      <c r="Y21" s="6" t="s">
+      <c r="Z21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AA21" s="5" t="s">
+      <c r="AB21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB21" s="16">
-        <f>W13/W12^2</f>
+      <c r="AC21" s="4">
+        <f>X13/X12^2</f>
         <v>1.9169971246180977E-3</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AE21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AE21" s="4">
-        <f>W20/W19^2</f>
+      <c r="AF21" s="4">
+        <f>X20/X19^2</f>
         <v>5.3697643828000158E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="AA22" s="5" t="s">
+    <row r="22" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="AB22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AB22" s="12">
-        <f>AB21/AB20*100</f>
+      <c r="AC22" s="20">
+        <f>AC21/AC20*100</f>
         <v>2.8638135783715194E-4</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AE22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AE22" s="21">
-        <f>AE21/AE20*100</f>
+      <c r="AF22" s="20">
+        <f>AF21/AF20*100</f>
         <v>7.9538766792138448E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AA23" s="5" t="s">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AB23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AB23" s="12">
-        <f>ABS(AB20-C6)/C6*100</f>
+      <c r="AC23" s="36">
+        <f>ABS(AC20-C6)/C6*100</f>
         <v>1.1246465741429721</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AE23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE23" s="12">
-        <f>ABS(AE20-C6)/C6*100</f>
+      <c r="AF23" s="15">
+        <f>ABS(AF20-C6)/C6*100</f>
         <v>0.2787513013736504</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>26</v>
       </c>
@@ -13135,7 +13141,7 @@
         <v>2.4649999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>27</v>
       </c>
@@ -13143,7 +13149,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
@@ -13165,26 +13171,26 @@
       <c r="H39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AA39" s="5" t="s">
+      <c r="AB39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AB39" s="4">
-        <f>X41</f>
+      <c r="AC39" s="4">
+        <f>Y41</f>
         <v>3.6781128683029527</v>
       </c>
-      <c r="AD39" s="5" t="s">
+      <c r="AE39" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AE39" s="4">
-        <f>X51</f>
+      <c r="AF39" s="4">
+        <f>Y51</f>
         <v>3.6500097552262942</v>
       </c>
     </row>
-    <row r="40" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>10000000</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="27">
         <v>0.05</v>
       </c>
       <c r="D40" s="1">
@@ -13197,36 +13203,36 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G40" s="3">
-        <f>(E40-(W$41*D40+X$41))</f>
+        <f t="shared" ref="G40:G51" si="1">(E40-(X$41*D40+Y$41))</f>
         <v>3.1362522959416383E-3</v>
       </c>
-      <c r="H40" s="30"/>
+      <c r="H40" s="33"/>
       <c r="I40" s="9"/>
-      <c r="W40" s="23" t="s">
+      <c r="X40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="X40" s="23"/>
-      <c r="AA40" s="5" t="s">
+      <c r="Y40" s="25"/>
+      <c r="AB40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AB40" s="4">
-        <f>X42</f>
+      <c r="AC40" s="4">
+        <f>Y42</f>
         <v>7.5539774094392186E-3</v>
       </c>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="5" t="s">
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AE40" s="4">
-        <f>X42</f>
+      <c r="AF40" s="4">
+        <f>Y42</f>
         <v>7.5539774094392186E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>1000000</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="1">
         <v>2.464</v>
       </c>
@@ -13237,44 +13243,44 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G41" s="3">
-        <f>(E41-(W$41*D41+X$41))</f>
+        <f t="shared" si="1"/>
         <v>3.8629463646640272E-3</v>
       </c>
-      <c r="H41" s="31"/>
+      <c r="H41" s="34"/>
       <c r="I41" s="9"/>
-      <c r="V41" s="6" t="s">
+      <c r="W41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W41" s="11">
-        <f t="array" ref="W41:X43">LINEST(E40:E51,D40:D51,1,1)</f>
+      <c r="X41" s="4">
+        <f t="array" ref="X41:Y43">LINEST(E40:E51,D40:D51,1,1)</f>
         <v>-1.4933059312774419</v>
       </c>
-      <c r="X41" s="11">
+      <c r="Y41" s="4">
         <v>3.6781128683029527</v>
       </c>
-      <c r="Y41" s="6" t="s">
+      <c r="Z41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA41" s="5" t="s">
+      <c r="AB41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AB41" s="12">
-        <f>AB40/AB39*100</f>
+      <c r="AC41" s="15">
+        <f>AC40/AC39*100</f>
         <v>0.20537644384264245</v>
       </c>
-      <c r="AD41" s="5" t="s">
+      <c r="AE41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AE41" s="12">
-        <f>AE40/AE39*100</f>
+      <c r="AF41" s="15">
+        <f>AF40/AF39*100</f>
         <v>0.2069577320614828</v>
       </c>
     </row>
-    <row r="42" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>10000</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="1">
         <v>2.3109999999999999</v>
       </c>
@@ -13285,46 +13291,46 @@
         <v>1E-3</v>
       </c>
       <c r="G42" s="3">
-        <f>(E42-(W$41*D42+X$41))</f>
+        <f t="shared" si="1"/>
         <v>2.9171388792153252E-3</v>
       </c>
       <c r="H42" s="3">
-        <f t="array" ref="H42">(E42-(W$51*D42+X$51))</f>
+        <f t="array" ref="H42">(E42-(X$51*D42+Y$51))</f>
         <v>2.5702306557076615E-4</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="V42" s="6" t="s">
+      <c r="W42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W42" s="11">
+      <c r="X42" s="4">
         <v>4.5529131323439193E-3</v>
       </c>
-      <c r="X42" s="11">
+      <c r="Y42" s="4">
         <v>7.5539774094392186E-3</v>
       </c>
-      <c r="Y42" s="6" t="s">
+      <c r="Z42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA42" s="5" t="s">
+      <c r="AB42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AB42" s="12">
-        <f>ABS(C5-AB39)/C5 *100</f>
+      <c r="AC42" s="36">
+        <f>ABS(C5-AC39)/C5 *100</f>
         <v>3.0283716611471387</v>
       </c>
-      <c r="AD42" s="5" t="s">
+      <c r="AE42" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE42" s="12">
-        <f>ABS(C5-AE39)/C5 *100</f>
+      <c r="AF42" s="36">
+        <f>ABS(C5-AF39)/C5 *100</f>
         <v>2.2411696141819157</v>
       </c>
     </row>
-    <row r="43" spans="2:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:32" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>4700</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="1">
         <v>2.1589999999999998</v>
       </c>
@@ -13335,32 +13341,32 @@
         <v>1E-3</v>
       </c>
       <c r="G43" s="3">
-        <f>(E43-(W$41*D43+X$41))</f>
+        <f t="shared" si="1"/>
         <v>9.3463732504422969E-4</v>
       </c>
       <c r="H43" s="3">
-        <f t="array" ref="H43">(E43-(W$51*D43+X$51))</f>
+        <f t="array" ref="H43">(E43-(X$51*D43+Y$51))</f>
         <v>2.978926889526945E-4</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="V43" s="6" t="s">
+      <c r="W43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W43" s="11">
+      <c r="X43" s="22">
         <v>0.99990705184371309</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="11">
         <v>1.3103019539363775E-2</v>
       </c>
-      <c r="Y43" s="6" t="s">
+      <c r="Z43" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>2200</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="1">
         <v>1.901</v>
       </c>
@@ -13371,38 +13377,38 @@
         <v>1E-3</v>
       </c>
       <c r="G44" s="3">
-        <f>(E44-(W$41*D44+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-3.3382929445354703E-3</v>
       </c>
       <c r="H44" s="3">
-        <f t="array" ref="H44">(E44-(W$51*D44+X$51))</f>
+        <f t="array" ref="H44">(E44-(X$51*D44+Y$51))</f>
         <v>-5.4063123977943217E-4</v>
       </c>
       <c r="I44" s="9"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="14"/>
-      <c r="AA44" s="5" t="s">
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="13"/>
+      <c r="AB44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AB44" s="4">
-        <f xml:space="preserve"> -X41/W41</f>
+      <c r="AC44" s="4">
+        <f xml:space="preserve"> -Y41/X41</f>
         <v>2.4630672063001366</v>
       </c>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="5" t="s">
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AE44" s="4">
-        <f xml:space="preserve"> -X51/W51</f>
+      <c r="AF44" s="4">
+        <f xml:space="preserve"> -Y51/X51</f>
         <v>2.4662323412504752</v>
       </c>
     </row>
-    <row r="45" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>1500</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="1">
         <v>1.7250000000000001</v>
       </c>
@@ -13413,37 +13419,37 @@
         <v>1E-3</v>
       </c>
       <c r="G45" s="3">
-        <f>(E45-(W$41*D45+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-5.1601368493652267E-3</v>
       </c>
       <c r="H45" s="3">
-        <f t="array" ref="H45">(E45-(W$51*D45+X$51))</f>
+        <f t="array" ref="H45">(E45-(X$51*D45+Y$51))</f>
         <v>-1.962430744217869E-5</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="V45" s="14"/>
       <c r="W45" s="13"/>
-      <c r="X45" s="15"/>
-      <c r="AA45" s="5" t="s">
+      <c r="X45" s="12"/>
+      <c r="Y45" s="14"/>
+      <c r="AB45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AB45" s="4">
-        <f>SQRT((X42/W41)^2+(X41*W42/(W41)^2)^2)</f>
+      <c r="AC45" s="4">
+        <f>SQRT((Y42/X41)^2+(Y41*X42/(X41)^2)^2)</f>
         <v>9.0544534853088041E-3</v>
       </c>
-      <c r="AD45" s="5" t="s">
+      <c r="AE45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AE45" s="4">
-        <f>SQRT((X52/W51)^2+(X51*W52/(W51)^2)^2)</f>
+      <c r="AF45" s="4">
+        <f>SQRT((Y52/X51)^2+(Y51*X52/(X51)^2)^2)</f>
         <v>1.0021219388169883E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="4">
         <v>1.522</v>
       </c>
@@ -13454,34 +13460,34 @@
         <v>1E-3</v>
       </c>
       <c r="G46" s="3">
-        <f>(E46-(W$41*D46+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-8.301240898686002E-3</v>
       </c>
       <c r="H46" s="3">
-        <f t="array" ref="H46">(E46-(W$51*D46+X$51))</f>
+        <f t="array" ref="H46">(E46-(X$51*D46+Y$51))</f>
         <v>-4.5846290253037658E-4</v>
       </c>
       <c r="I46" s="9"/>
-      <c r="AA46" s="5" t="s">
+      <c r="AB46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AB46" s="12">
-        <f>AB45/AB44*100</f>
+      <c r="AC46" s="15">
+        <f>AC45/AC44*100</f>
         <v>0.36760886841207352</v>
       </c>
-      <c r="AD46" s="5" t="s">
+      <c r="AE46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE46" s="12">
-        <f>AE45/AE44*100</f>
+      <c r="AF46" s="11">
+        <f>AF45/AF44*100</f>
         <v>4.0633719786063366E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>470</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="1">
         <v>1.1259999999999999</v>
       </c>
@@ -13492,34 +13498,34 @@
         <v>1E-3</v>
       </c>
       <c r="G47" s="3">
-        <f>(E47-(W$41*D47+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-1.2650389684553343E-2</v>
       </c>
       <c r="H47" s="3">
-        <f t="array" ref="H47">(E47-(W$51*D47+X$51))</f>
+        <f t="array" ref="H47">(E47-(X$51*D47+Y$51))</f>
         <v>4.6380269522861006E-4</v>
       </c>
       <c r="I47" s="9"/>
-      <c r="AA47" s="5" t="s">
+      <c r="AB47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AB47" s="12">
-        <f>ABS(AB44-C4)/C4*100</f>
+      <c r="AC47" s="36">
+        <f>ABS(AC44-C4)/C4*100</f>
         <v>1.7796366239725918</v>
       </c>
-      <c r="AD47" s="5" t="s">
+      <c r="AE47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE47" s="12">
-        <f>ABS(AE44-C4)/C4*100</f>
+      <c r="AF47" s="36">
+        <f>ABS(AF44-C4)/C4*100</f>
         <v>1.9104273243998042</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>220</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="1">
         <v>0.60499999999999998</v>
       </c>
@@ -13530,18 +13536,18 @@
         <v>0.1</v>
       </c>
       <c r="G48" s="3">
-        <f>(E48-(W$41*D48+X$41))</f>
+        <f t="shared" si="1"/>
         <v>2.5337220119899584E-2</v>
       </c>
-      <c r="H48" s="30"/>
+      <c r="H48" s="33"/>
       <c r="I48" s="9"/>
-      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
     </row>
-    <row r="49" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:32" ht="18" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>150</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="1">
         <v>0.45200000000000001</v>
       </c>
@@ -13552,281 +13558,281 @@
         <v>0.1</v>
       </c>
       <c r="G49" s="3">
-        <f>(E49-(W$41*D49+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-3.1385873655489505E-3</v>
       </c>
-      <c r="H49" s="32"/>
+      <c r="H49" s="35"/>
       <c r="I49" s="9"/>
-      <c r="AA49" s="5" t="s">
+      <c r="AB49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB49" s="16">
-        <f xml:space="preserve"> -1/W41*1000</f>
+      <c r="AC49" s="36">
+        <f xml:space="preserve"> -1/X41*1000</f>
         <v>669.65514504087889</v>
       </c>
-      <c r="AD49" s="5" t="s">
+      <c r="AE49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AE49" s="16">
-        <f xml:space="preserve"> -1/W51*1000</f>
+      <c r="AF49" s="36">
+        <f xml:space="preserve"> -1/X51*1000</f>
         <v>675.67828763174725</v>
       </c>
     </row>
-    <row r="50" spans="2:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="B50" s="17">
+    <row r="50" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B50" s="16">
         <v>100</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="17">
+      <c r="C50" s="29"/>
+      <c r="D50" s="16">
         <v>0.33200000000000002</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="16">
         <v>3.2</v>
       </c>
       <c r="F50" s="1">
         <v>0.1</v>
       </c>
       <c r="G50" s="3">
-        <f>(E50-(W$41*D50+X$41))</f>
+        <f t="shared" si="1"/>
         <v>1.7664700881158346E-2</v>
       </c>
-      <c r="H50" s="32"/>
-      <c r="W50" s="23" t="s">
+      <c r="H50" s="35"/>
+      <c r="X50" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="X50" s="23"/>
-      <c r="AA50" s="5" t="s">
+      <c r="Y50" s="26"/>
+      <c r="AB50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AB50" s="4">
-        <f>W42/W41^2</f>
+      <c r="AC50" s="4">
+        <f>X42/X41^2</f>
         <v>2.0416993197034561E-3</v>
       </c>
-      <c r="AD50" s="5" t="s">
+      <c r="AE50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AE50" s="21">
-        <f>W52/W51^2</f>
+      <c r="AF50" s="20">
+        <f>X52/X51^2</f>
         <v>2.2032363385601143E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="17">
+    <row r="51" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="B51" s="16">
         <v>47</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="18">
         <v>0.01</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="16">
         <v>0.17199999999999999</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="16">
         <v>3.4</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>0.1</v>
       </c>
       <c r="G51" s="3">
-        <f>(E51-(W$41*D51+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-2.126424812323302E-2</v>
       </c>
-      <c r="H51" s="31"/>
-      <c r="V51" s="6" t="s">
+      <c r="H51" s="34"/>
+      <c r="W51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="W51" s="11">
-        <f t="array" ref="W51:X53">LINEST(E42:E47,D42:D47,1,1)</f>
+      <c r="X51" s="20">
+        <f t="array" ref="X51:Y53">LINEST(E42:E47,D42:D47,1,1)</f>
         <v>-1.4799942787935374</v>
       </c>
-      <c r="X51" s="11">
+      <c r="Y51" s="20">
         <v>3.6500097552262942</v>
       </c>
-      <c r="Y51" s="6" t="s">
+      <c r="Z51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA51" s="5" t="s">
+      <c r="AB51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AB51" s="21">
-        <f>AB50/AB49*100</f>
+      <c r="AC51" s="20">
+        <f>AC50/AC49*100</f>
         <v>3.0488817039982886E-4</v>
       </c>
-      <c r="AD51" s="5" t="s">
+      <c r="AE51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AE51" s="33">
-        <f>AE50/AE49*100</f>
+      <c r="AF51" s="22">
+        <f>AF50/AF49*100</f>
         <v>3.26077717589899E-5</v>
       </c>
     </row>
-    <row r="52" spans="2:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="V52" s="6" t="s">
+    <row r="52" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="W52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W52" s="11">
+      <c r="X52" s="20">
         <v>4.8259315647510541E-4</v>
       </c>
-      <c r="X52" s="11">
+      <c r="Y52" s="20">
         <v>8.8495418363235072E-4</v>
       </c>
-      <c r="Y52" s="6" t="s">
+      <c r="Z52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AA52" s="5" t="s">
+      <c r="AB52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AB52" s="12">
-        <f>ABS(AB49-C6)/C6*100</f>
+      <c r="AC52" s="36">
+        <f>ABS(AC49-C6)/C6*100</f>
         <v>1.0849121062217293</v>
       </c>
-      <c r="AD52" s="5" t="s">
+      <c r="AE52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AE52" s="12">
-        <f>ABS(AE49-C6)/C6*100</f>
+      <c r="AF52" s="15">
+        <f>ABS(AF49-C6)/C6*100</f>
         <v>0.19523077817618129</v>
       </c>
     </row>
-    <row r="53" spans="2:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="V53" s="6" t="s">
+    <row r="53" spans="2:32" ht="18" x14ac:dyDescent="0.25">
+      <c r="W53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W53" s="22">
+      <c r="X53" s="21">
         <v>0.99999957469346934</v>
       </c>
-      <c r="X53" s="3">
+      <c r="Y53" s="20">
         <v>4.6711062242594056E-4</v>
       </c>
-      <c r="Y53" s="6" t="s">
+      <c r="Z53" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I67" s="34">
+    <row r="67" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I67" s="23">
         <v>1</v>
       </c>
-      <c r="J67" s="36"/>
-      <c r="K67" s="35"/>
-      <c r="M67" s="23">
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="M67" s="26">
         <v>2</v>
       </c>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
     </row>
-    <row r="68" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I68" s="23" t="s">
+    <row r="68" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I68" s="26" t="s">
         <v>18</v>
       </c>
       <c r="J68" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K68" s="12">
-        <f>(W41-W12)/W12*100</f>
+      <c r="K68" s="11">
+        <f>(X41-X12)/X12*100</f>
         <v>-4.01702801537221E-2</v>
       </c>
-      <c r="M68" s="23" t="s">
+      <c r="M68" s="26" t="s">
         <v>18</v>
       </c>
       <c r="N68" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O68" s="12">
-        <f>(W51-W19)/W19*100</f>
+      <c r="O68" s="11">
+        <f>(X51-X19)/X19*100</f>
         <v>-8.3683899926482577E-2</v>
       </c>
     </row>
-    <row r="69" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I69" s="23"/>
+    <row r="69" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I69" s="26"/>
       <c r="J69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K69" s="12">
-        <f>-(X41-X12)/X12*100</f>
+      <c r="K69" s="11">
+        <f>-(Y41-Y12)/Y12*100</f>
         <v>-0.10834664984752868</v>
       </c>
-      <c r="M69" s="23"/>
+      <c r="M69" s="26"/>
       <c r="N69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O69" s="12">
-        <f>-(X51-X19)/X19*100</f>
+      <c r="O69" s="11">
+        <f>-(Y51-Y19)/Y19*100</f>
         <v>-9.5248781218478032E-2</v>
       </c>
-      <c r="V69" s="18"/>
+      <c r="W69" s="17"/>
     </row>
-    <row r="70" spans="9:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="I70" s="23"/>
+    <row r="70" spans="9:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="I70" s="26"/>
       <c r="J70" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K70" s="12">
-        <f>(AB10-AB39)/AB10*100</f>
+      <c r="K70" s="11">
+        <f>(AC10-AC39)/AC10*100</f>
         <v>-0.10834664984752868</v>
       </c>
-      <c r="M70" s="23"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O70" s="12">
-        <f>(AE10-AE39)/AE10*100</f>
+      <c r="O70" s="11">
+        <f>(AF10-AF39)/AF10*100</f>
         <v>-9.5248781218478032E-2</v>
       </c>
     </row>
-    <row r="71" spans="9:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="I71" s="23"/>
+    <row r="71" spans="9:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="I71" s="26"/>
       <c r="J71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K71" s="12">
-        <f>(AB15-AB44)/AB15*100</f>
+      <c r="K71" s="11">
+        <f>(AC15-AC44)/AC15*100</f>
         <v>-0.14857661364318936</v>
       </c>
-      <c r="M71" s="23"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O71" s="12">
-        <f>(AE15-AE44)/AE15*100</f>
+      <c r="O71" s="11">
+        <f>(AF15-AF44)/AF15*100</f>
         <v>-0.1790825444022032</v>
       </c>
     </row>
-    <row r="72" spans="9:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="I72" s="23"/>
+    <row r="72" spans="9:23" ht="18" x14ac:dyDescent="0.25">
+      <c r="I72" s="26"/>
       <c r="J72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="12">
-        <f>(AB20-AB49)/AB20*100</f>
+      <c r="K72" s="11">
+        <f>(AC20-AC49)/AC20*100</f>
         <v>-4.0186423152497867E-2</v>
       </c>
-      <c r="M72" s="23"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O72" s="12">
-        <f>(AE20-AE49)/AE20*100</f>
+      <c r="O72" s="11">
+        <f>(AF20-AF49)/AF20*100</f>
         <v>-8.3753988530450088E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="W50:X50"/>
     <mergeCell ref="I68:I72"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X40:Y40"/>
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="C40:C50"/>
-    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="X18:Y18"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="M68:M72"/>
     <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="X50:Y50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/-114/T1B/T1B.xlsx
+++ b/-114/T1B/T1B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\-114\T1B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAII\-114\T1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8801E212-5CAE-48D4-B9BF-168A9DFA7AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599BFCD8-F712-467F-803C-E02BEE61366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BBBEBA2-0569-494E-BBE3-128569D26559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2BBBEBA2-0569-494E-BBE3-128569D26559}"/>
   </bookViews>
   <sheets>
     <sheet name="Thévenin Norton" sheetId="1" r:id="rId1"/>
@@ -1072,6 +1072,18 @@
     <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,10 +1099,10 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1100,18 +1112,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,7 +1148,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1231,7 +1231,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1485,7 +1485,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1523,7 +1523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="663625024"/>
@@ -1611,7 +1611,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1649,7 +1649,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="663625440"/>
@@ -1709,7 +1709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1746,7 +1746,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1760,7 +1760,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1822,7 +1822,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2174,7 +2174,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2212,7 +2212,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269789168"/>
@@ -2311,7 +2311,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2349,7 +2349,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269790000"/>
@@ -2405,7 +2405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2442,7 +2442,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2456,7 +2456,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2518,7 +2518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2769,7 +2769,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2807,7 +2807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2009305696"/>
@@ -2895,7 +2895,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2933,7 +2933,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2009309024"/>
@@ -2993,7 +2993,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3030,7 +3030,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3044,7 +3044,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3106,7 +3106,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3470,7 +3470,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3508,7 +3508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92439776"/>
@@ -3610,7 +3610,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3648,7 +3648,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92440192"/>
@@ -3704,7 +3704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3741,7 +3741,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3755,7 +3755,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3822,7 +3822,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4182,7 +4182,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4220,7 +4220,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2021584624"/>
@@ -4308,7 +4308,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4346,7 +4346,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2023735424"/>
@@ -4412,7 +4412,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4449,7 +4449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4463,7 +4463,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4546,7 +4546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4765,7 +4765,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4803,7 +4803,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="663625024"/>
@@ -4893,7 +4893,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4931,7 +4931,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="663625440"/>
@@ -4991,7 +4991,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5028,7 +5028,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5042,7 +5042,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5104,7 +5104,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5385,7 +5385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5423,7 +5423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269789168"/>
@@ -5522,7 +5522,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5560,7 +5560,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1269790000"/>
@@ -5616,7 +5616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5653,7 +5653,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5667,7 +5667,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5729,7 +5729,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5944,7 +5944,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5982,7 +5982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2009305696"/>
@@ -6070,7 +6070,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6108,7 +6108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2009309024"/>
@@ -6168,7 +6168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6205,7 +6205,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6219,7 +6219,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6281,7 +6281,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6574,7 +6574,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6612,7 +6612,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92439776"/>
@@ -6714,7 +6714,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6752,7 +6752,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92440192"/>
@@ -6808,7 +6808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6845,7 +6845,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12198,7 +12198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12496,47 +12496,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B4EF1B-A264-47C1-A37F-094B4D9A6EB9}">
   <dimension ref="B3:AE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="76" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="7" customWidth="1"/>
-    <col min="7" max="8" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="7"/>
-    <col min="13" max="13" width="22.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="8.85546875" style="7"/>
-    <col min="21" max="21" width="8.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="7"/>
+    <col min="5" max="5" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="7" customWidth="1"/>
+    <col min="7" max="8" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8.88671875" style="7"/>
+    <col min="13" max="13" width="22.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="8.88671875" style="7"/>
+    <col min="21" max="21" width="8.88671875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="7" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" style="7" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" style="7" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="7"/>
     <col min="26" max="26" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="7" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" style="7" customWidth="1"/>
     <col min="29" max="29" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="7" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="7"/>
+    <col min="30" max="30" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" style="7" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -12569,17 +12569,17 @@
         <v>756</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AA9" s="34">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AA9" s="24">
         <v>1</v>
       </c>
-      <c r="AB9" s="35"/>
-      <c r="AD9" s="34">
+      <c r="AB9" s="26"/>
+      <c r="AD9" s="24">
         <v>2</v>
       </c>
-      <c r="AE9" s="35"/>
+      <c r="AE9" s="26"/>
     </row>
-    <row r="10" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -12616,11 +12616,11 @@
         <v>3.6465364736784283</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>10000000</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="28">
         <v>0.05</v>
       </c>
       <c r="D11" s="1">
@@ -12633,15 +12633,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G11" s="2">
-        <f>(E11-(W$12*D11+X$12))</f>
+        <f t="shared" ref="G11:G21" si="0">(E11-(W$12*D11+X$12))</f>
         <v>2.6206890367676261E-3</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="20"/>
-      <c r="W11" s="23" t="s">
+      <c r="W11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="23"/>
+      <c r="X11" s="27"/>
       <c r="AA11" s="5" t="s">
         <v>19</v>
       </c>
@@ -12658,11 +12658,11 @@
         <v>2.2230761979651231E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>1000000</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="1">
         <v>2.4609999999999999</v>
       </c>
@@ -12673,10 +12673,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G12" s="2">
-        <f>(E12-(W$12*D12+X$12))</f>
+        <f t="shared" si="0"/>
         <v>2.6206890367676261E-3</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="20"/>
       <c r="V12" s="6" t="s">
         <v>6</v>
@@ -12706,11 +12706,11 @@
         <v>6.0964046678589894E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10000</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="1">
         <v>2.3069999999999999</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>1E-3</v>
       </c>
       <c r="G13" s="2">
-        <f>(E13-(W$12*D13+X$12))</f>
+        <f t="shared" si="0"/>
         <v>1.3091592590041279E-3</v>
       </c>
       <c r="H13" s="2">
@@ -12756,11 +12756,11 @@
         <v>2.1438788145218046</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>4700</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="1">
         <v>2.1549999999999998</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>1E-3</v>
       </c>
       <c r="G14" s="2">
-        <f>(E14-(W$12*D14+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-7.6455844372408377E-4</v>
       </c>
       <c r="H14" s="2">
@@ -12792,11 +12792,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>2200</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="1">
         <v>1.8959999999999999</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>1E-3</v>
       </c>
       <c r="G15" s="2">
-        <f>(E15-(W$12*D15+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-3.6862221608721102E-3</v>
       </c>
       <c r="H15" s="2">
@@ -12838,11 +12838,11 @@
         <v>2.461823644828621</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>1500</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="1">
         <v>1.7230000000000001</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>1E-3</v>
       </c>
       <c r="G16" s="2">
-        <f>(E16-(W$12*D16+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-4.1319666514763043E-3</v>
       </c>
       <c r="H16" s="2">
@@ -12883,11 +12883,11 @@
         <v>2.4671146231834938E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>470</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="1">
         <v>1.1279999999999999</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1E-3</v>
       </c>
       <c r="G17" s="2">
-        <f>(E17-(W$12*D17+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-1.4006058974654678E-2</v>
       </c>
       <c r="H17" s="2">
@@ -12921,11 +12921,11 @@
         <v>0.10021492109583019</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>220</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="1">
         <v>0.60399999999999998</v>
       </c>
@@ -12936,15 +12936,15 @@
         <v>0.1</v>
       </c>
       <c r="G18" s="2">
-        <f>(E18-(W$12*D18+X$12))</f>
+        <f t="shared" si="0"/>
         <v>2.8187177365941452E-2</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="20"/>
-      <c r="W18" s="23" t="s">
+      <c r="W18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="X18" s="23"/>
+      <c r="X18" s="27"/>
       <c r="AA18" s="5" t="s">
         <v>13</v>
       </c>
@@ -12960,11 +12960,11 @@
         <v>1.7282497863066575</v>
       </c>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>150</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="1">
         <v>0.45100000000000001</v>
       </c>
@@ -12975,10 +12975,10 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="2">
-        <f>(E19-(W$12*D19+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-3.8044637430445505E-4</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="20"/>
       <c r="V19" s="6" t="s">
         <v>6</v>
@@ -12995,11 +12995,11 @@
       </c>
       <c r="AC19" s="10"/>
     </row>
-    <row r="20" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>100</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="17">
         <v>0.32100000000000001</v>
       </c>
@@ -13010,10 +13010,10 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="2">
-        <f>(E20-(W$12*D20+X$12))</f>
+        <f t="shared" si="0"/>
         <v>5.4117687483627996E-3</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="20"/>
       <c r="V20" s="6" t="s">
         <v>7</v>
@@ -13042,7 +13042,7 @@
         <v>675.11285368970039</v>
       </c>
     </row>
-    <row r="21" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>47</v>
       </c>
@@ -13059,10 +13059,10 @@
         <v>0.1</v>
       </c>
       <c r="G21" s="2">
-        <f>(E21-(W$12*D21+X$12))</f>
+        <f t="shared" si="0"/>
         <v>-1.7180230841811195E-2</v>
       </c>
-      <c r="H21" s="29"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="20"/>
       <c r="V21" s="6" t="s">
         <v>8</v>
@@ -13091,7 +13091,7 @@
         <v>5.3697643828000158E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="AA22" s="5" t="s">
         <v>24</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>7.9538766792138448E-5</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.3">
       <c r="AA23" s="5" t="s">
         <v>13</v>
       </c>
@@ -13123,11 +13123,11 @@
         <v>0.2787513013736504</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.3">
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>26</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>2.4649999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>27</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
@@ -13180,11 +13180,11 @@
         <v>3.6500097552262942</v>
       </c>
     </row>
-    <row r="40" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>10000000</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="28">
         <v>0.05</v>
       </c>
       <c r="D40" s="1">
@@ -13197,15 +13197,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G40" s="3">
-        <f>(E40-(W$41*D40+X$41))</f>
+        <f t="shared" ref="G40:G51" si="1">(E40-(W$41*D40+X$41))</f>
         <v>3.1362522959416383E-3</v>
       </c>
-      <c r="H40" s="30"/>
+      <c r="H40" s="34"/>
       <c r="I40" s="9"/>
-      <c r="W40" s="23" t="s">
+      <c r="W40" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="X40" s="23"/>
+      <c r="X40" s="27"/>
       <c r="AA40" s="5" t="s">
         <v>19</v>
       </c>
@@ -13222,11 +13222,11 @@
         <v>7.5539774094392186E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>1000000</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="1">
         <v>2.464</v>
       </c>
@@ -13237,10 +13237,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G41" s="3">
-        <f>(E41-(W$41*D41+X$41))</f>
+        <f t="shared" si="1"/>
         <v>3.8629463646640272E-3</v>
       </c>
-      <c r="H41" s="31"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="9"/>
       <c r="V41" s="6" t="s">
         <v>6</v>
@@ -13270,11 +13270,11 @@
         <v>0.2069577320614828</v>
       </c>
     </row>
-    <row r="42" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>10000</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="1">
         <v>2.3109999999999999</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>1E-3</v>
       </c>
       <c r="G42" s="3">
-        <f>(E42-(W$41*D42+X$41))</f>
+        <f t="shared" si="1"/>
         <v>2.9171388792153252E-3</v>
       </c>
       <c r="H42" s="3">
@@ -13320,11 +13320,11 @@
         <v>2.2411696141819157</v>
       </c>
     </row>
-    <row r="43" spans="2:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1">
         <v>4700</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="1">
         <v>2.1589999999999998</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>1E-3</v>
       </c>
       <c r="G43" s="3">
-        <f>(E43-(W$41*D43+X$41))</f>
+        <f t="shared" si="1"/>
         <v>9.3463732504422969E-4</v>
       </c>
       <c r="H43" s="3">
@@ -13356,11 +13356,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="1">
         <v>2200</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="1">
         <v>1.901</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>1E-3</v>
       </c>
       <c r="G44" s="3">
-        <f>(E44-(W$41*D44+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-3.3382929445354703E-3</v>
       </c>
       <c r="H44" s="3">
@@ -13398,11 +13398,11 @@
         <v>2.4662323412504752</v>
       </c>
     </row>
-    <row r="45" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="1">
         <v>1500</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="1">
         <v>1.7250000000000001</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>1E-3</v>
       </c>
       <c r="G45" s="3">
-        <f>(E45-(W$41*D45+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-5.1601368493652267E-3</v>
       </c>
       <c r="H45" s="3">
@@ -13439,11 +13439,11 @@
         <v>1.0021219388169883E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="1">
         <v>1000</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="4">
         <v>1.522</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>1E-3</v>
       </c>
       <c r="G46" s="3">
-        <f>(E46-(W$41*D46+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-8.301240898686002E-3</v>
       </c>
       <c r="H46" s="3">
@@ -13477,11 +13477,11 @@
         <v>4.0633719786063366E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
         <v>470</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="1">
         <v>1.1259999999999999</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>1E-3</v>
       </c>
       <c r="G47" s="3">
-        <f>(E47-(W$41*D47+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-1.2650389684553343E-2</v>
       </c>
       <c r="H47" s="3">
@@ -13515,11 +13515,11 @@
         <v>1.9104273243998042</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
       <c r="B48" s="1">
         <v>220</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="1">
         <v>0.60499999999999998</v>
       </c>
@@ -13530,18 +13530,18 @@
         <v>0.1</v>
       </c>
       <c r="G48" s="3">
-        <f>(E48-(W$41*D48+X$41))</f>
+        <f t="shared" si="1"/>
         <v>2.5337220119899584E-2</v>
       </c>
-      <c r="H48" s="30"/>
+      <c r="H48" s="34"/>
       <c r="I48" s="9"/>
       <c r="AC48" s="9"/>
     </row>
-    <row r="49" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="1">
         <v>150</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="1">
         <v>0.45200000000000001</v>
       </c>
@@ -13552,10 +13552,10 @@
         <v>0.1</v>
       </c>
       <c r="G49" s="3">
-        <f>(E49-(W$41*D49+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-3.1385873655489505E-3</v>
       </c>
-      <c r="H49" s="32"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="9"/>
       <c r="AA49" s="5" t="s">
         <v>12</v>
@@ -13572,11 +13572,11 @@
         <v>675.67828763174725</v>
       </c>
     </row>
-    <row r="50" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="17">
         <v>100</v>
       </c>
-      <c r="C50" s="26"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="17">
         <v>0.33200000000000002</v>
       </c>
@@ -13587,14 +13587,14 @@
         <v>0.1</v>
       </c>
       <c r="G50" s="3">
-        <f>(E50-(W$41*D50+X$41))</f>
+        <f t="shared" si="1"/>
         <v>1.7664700881158346E-2</v>
       </c>
-      <c r="H50" s="32"/>
-      <c r="W50" s="23" t="s">
+      <c r="H50" s="36"/>
+      <c r="W50" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="X50" s="23"/>
+      <c r="X50" s="27"/>
       <c r="AA50" s="5" t="s">
         <v>23</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>2.2032363385601143E-4</v>
       </c>
     </row>
-    <row r="51" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="17">
         <v>47</v>
       </c>
@@ -13627,10 +13627,10 @@
         <v>0.1</v>
       </c>
       <c r="G51" s="3">
-        <f>(E51-(W$41*D51+X$41))</f>
+        <f t="shared" si="1"/>
         <v>-2.126424812323302E-2</v>
       </c>
-      <c r="H51" s="31"/>
+      <c r="H51" s="35"/>
       <c r="V51" s="6" t="s">
         <v>6</v>
       </c>
@@ -13654,12 +13654,12 @@
       <c r="AD51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AE51" s="33">
+      <c r="AE51" s="23">
         <f>AE50/AE49*100</f>
         <v>3.26077717589899E-5</v>
       </c>
     </row>
-    <row r="52" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="V52" s="6" t="s">
         <v>7</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0.19523077817618129</v>
       </c>
     </row>
-    <row r="53" spans="2:31" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:31" ht="16.2" x14ac:dyDescent="0.3">
       <c r="V53" s="6" t="s">
         <v>8</v>
       </c>
@@ -13701,20 +13701,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I67" s="34">
+    <row r="67" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I67" s="24">
         <v>1</v>
       </c>
-      <c r="J67" s="36"/>
-      <c r="K67" s="35"/>
-      <c r="M67" s="23">
+      <c r="J67" s="25"/>
+      <c r="K67" s="26"/>
+      <c r="M67" s="27">
         <v>2</v>
       </c>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
     </row>
-    <row r="68" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I68" s="23" t="s">
+    <row r="68" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I68" s="27" t="s">
         <v>18</v>
       </c>
       <c r="J68" s="6" t="s">
@@ -13724,7 +13724,7 @@
         <f>(W41-W12)/W12*100</f>
         <v>-4.01702801537221E-2</v>
       </c>
-      <c r="M68" s="23" t="s">
+      <c r="M68" s="27" t="s">
         <v>18</v>
       </c>
       <c r="N68" s="6" t="s">
@@ -13735,8 +13735,8 @@
         <v>-8.3683899926482577E-2</v>
       </c>
     </row>
-    <row r="69" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I69" s="23"/>
+    <row r="69" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I69" s="27"/>
       <c r="J69" s="6" t="s">
         <v>9</v>
       </c>
@@ -13744,7 +13744,7 @@
         <f>-(X41-X12)/X12*100</f>
         <v>-0.10834664984752868</v>
       </c>
-      <c r="M69" s="23"/>
+      <c r="M69" s="27"/>
       <c r="N69" s="6" t="s">
         <v>9</v>
       </c>
@@ -13754,8 +13754,8 @@
       </c>
       <c r="V69" s="18"/>
     </row>
-    <row r="70" spans="9:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="I70" s="23"/>
+    <row r="70" spans="9:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I70" s="27"/>
       <c r="J70" s="6" t="s">
         <v>15</v>
       </c>
@@ -13763,7 +13763,7 @@
         <f>(AB10-AB39)/AB10*100</f>
         <v>-0.10834664984752868</v>
       </c>
-      <c r="M70" s="23"/>
+      <c r="M70" s="27"/>
       <c r="N70" s="6" t="s">
         <v>15</v>
       </c>
@@ -13772,8 +13772,8 @@
         <v>-9.5248781218478032E-2</v>
       </c>
     </row>
-    <row r="71" spans="9:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="I71" s="23"/>
+    <row r="71" spans="9:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I71" s="27"/>
       <c r="J71" s="6" t="s">
         <v>17</v>
       </c>
@@ -13781,7 +13781,7 @@
         <f>(AB15-AB44)/AB15*100</f>
         <v>-0.14857661364318936</v>
       </c>
-      <c r="M71" s="23"/>
+      <c r="M71" s="27"/>
       <c r="N71" s="6" t="s">
         <v>17</v>
       </c>
@@ -13790,8 +13790,8 @@
         <v>-0.1790825444022032</v>
       </c>
     </row>
-    <row r="72" spans="9:22" ht="18" x14ac:dyDescent="0.25">
-      <c r="I72" s="23"/>
+    <row r="72" spans="9:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I72" s="27"/>
       <c r="J72" s="6" t="s">
         <v>16</v>
       </c>
@@ -13799,7 +13799,7 @@
         <f>(AB20-AB49)/AB20*100</f>
         <v>-4.0186423152497867E-2</v>
       </c>
-      <c r="M72" s="23"/>
+      <c r="M72" s="27"/>
       <c r="N72" s="6" t="s">
         <v>16</v>
       </c>
@@ -13810,11 +13810,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="W50:X50"/>
     <mergeCell ref="I68:I72"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="W11:X11"/>
@@ -13827,6 +13822,11 @@
     <mergeCell ref="H40:H41"/>
     <mergeCell ref="M68:M72"/>
     <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="M67:O67"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="W50:X50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
